--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ChequeBook.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ChequeBook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-71620\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-852020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Case</t>
   </si>
@@ -66,6 +66,48 @@
   </si>
   <si>
     <t>Select CUSTOMER_TYPE from dc_customer_info k where K.CUSTOMER_NAME = '{customer_name}'</t>
+  </si>
+  <si>
+    <t>success_message</t>
+  </si>
+  <si>
+    <t>tran_type_query</t>
+  </si>
+  <si>
+    <t>tran_date_query</t>
+  </si>
+  <si>
+    <t>tran_account_no_query</t>
+  </si>
+  <si>
+    <t>tran_response_query</t>
+  </si>
+  <si>
+    <t>tran_cheque_no_query</t>
+  </si>
+  <si>
+    <t>status_message</t>
+  </si>
+  <si>
+    <t>Your Cheque Book request has been logged successfully. You can check the status in My Account--&gt;Cheque Book--&gt;Status</t>
+  </si>
+  <si>
+    <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT CREATED_ON FROM DC_TRANSACTION DT where DT.TRANSACTION_ID='</t>
+  </si>
+  <si>
+    <t>SELECT FROM_ACCOUNT FROM DC_TRANSACTION DT where DT.TRANSACTION_ID='</t>
+  </si>
+  <si>
+    <t>SELECT RESPONSE_MESSAGE FROM DC_TRANSACTION DT where DT.TRANSACTION_ID='</t>
+  </si>
+  <si>
+    <t>SELECT CHQ_NO_OF_LEAVES FROM DC_TRANSACTION DT where DT.TRANSACTION_ID='</t>
+  </si>
+  <si>
+    <t>Your Cheque Book Request is in process</t>
   </si>
 </sst>
 </file>
@@ -101,8 +143,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,9 +441,16 @@
     <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="89.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="110.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="185.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="72.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="76.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="79.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="79.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,8 +478,29 @@
       <c r="I1" t="s">
         <v>11</v>
       </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -447,6 +518,27 @@
       </c>
       <c r="I2" t="s">
         <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ChequeBook.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ChequeBook.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-852020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-10192020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="47">
   <si>
     <t>Case</t>
   </si>
   <si>
-    <t>As a user I want to verify Cheque Book Request</t>
-  </si>
-  <si>
     <t>no_of_cheque</t>
   </si>
   <si>
@@ -108,6 +105,66 @@
   </si>
   <si>
     <t>Your Cheque Book Request is in process</t>
+  </si>
+  <si>
+    <t>06947900309303</t>
+  </si>
+  <si>
+    <t>Attock</t>
+  </si>
+  <si>
+    <t>ATTOCK CITY | 0662</t>
+  </si>
+  <si>
+    <t>pakistan22</t>
+  </si>
+  <si>
+    <t>Attocka</t>
+  </si>
+  <si>
+    <t>ATTOCKa CITY | 0662</t>
+  </si>
+  <si>
+    <t>23087900855910</t>
+  </si>
+  <si>
+    <t>Can't apply for cheque book if Customer account other than money club Cheque_Book_Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user want to apply for cheque book for  leaves 200 Cheque_Book_Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user want to apply for cheque book for  leaves 0 Cheque_Book_Normal</t>
+  </si>
+  <si>
+    <t>As a user when wrong Transaction Password Cheque_Book_Normal</t>
+  </si>
+  <si>
+    <t>As a user when Transaction Password isnt' entered Cheque_Book_Normal</t>
+  </si>
+  <si>
+    <t>As a user when invalid City selected Cheque_Book_Normal</t>
+  </si>
+  <si>
+    <t>As a user when invalid Branch selected Cheque_Book_Normal</t>
+  </si>
+  <si>
+    <t>As a user I want to verify Cheque Book Request Cheque_Book_Normal</t>
+  </si>
+  <si>
+    <t>As a user when FCY Acc is selected Cheque_Book_FCY</t>
+  </si>
+  <si>
+    <t>As a user when City and branch selected Cheque_Book_Normal_other</t>
+  </si>
+  <si>
+    <t>14187901897603</t>
+  </si>
+  <si>
+    <t>As a user when FCY Acc is selected not money club Cheque_Book_FCY_other</t>
+  </si>
+  <si>
+    <t>00277900350711</t>
   </si>
 </sst>
 </file>
@@ -143,9 +200,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,18 +486,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H12" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="86.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="89.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
@@ -455,93 +516,558 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
       <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L3" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M3" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N3" t="s">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
         <v>26</v>
       </c>
-      <c r="P2" t="s">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>